--- a/blog/saskatchewan_overdoses/data_saskatchewan_overdoses.xlsx
+++ b/blog/saskatchewan_overdoses/data_saskatchewan_overdoses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -734,7 +734,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11">
         <v>21</v>
@@ -748,7 +748,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -762,7 +762,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -776,13 +776,13 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -861,7 +861,7 @@
         <v>2019</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -877,7 +877,7 @@
         <v>2021</v>
       </c>
       <c r="B10">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -885,7 +885,7 @@
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +898,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1045,7 +1045,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1092,7 +1092,7 @@
         <v>35</v>
       </c>
       <c r="O4" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1139,7 +1139,7 @@
         <v>29</v>
       </c>
       <c r="O5" s="16">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1186,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="O6" s="16">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1233,7 +1233,7 @@
         <v>14</v>
       </c>
       <c r="O7" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="O8" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1509,13 +1509,13 @@
         <v>15</v>
       </c>
       <c r="M13" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13" s="6">
         <v>38</v>
       </c>
       <c r="O13" s="16">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1559,10 +1559,10 @@
         <v>52</v>
       </c>
       <c r="N14" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="16">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1606,10 +1606,10 @@
         <v>39</v>
       </c>
       <c r="N15" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O15" s="16">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1656,7 +1656,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="16">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1910,7 +1910,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="16">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1957,7 +1957,7 @@
         <v>71</v>
       </c>
       <c r="O3" s="16">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2139,13 +2139,13 @@
         <v>2</v>
       </c>
       <c r="M7" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N7" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2236,10 +2236,10 @@
         <v>3</v>
       </c>
       <c r="N9" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O9" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2283,10 +2283,10 @@
         <v>71</v>
       </c>
       <c r="N10" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O10" s="15">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2327,13 +2327,13 @@
         <v>30</v>
       </c>
       <c r="M11" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N11" s="6">
         <v>91</v>
       </c>
       <c r="O11" s="16">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2519,7 +2519,7 @@
         <v>3</v>
       </c>
       <c r="O15" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2613,7 +2613,7 @@
         <v>12</v>
       </c>
       <c r="O17" s="17">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
